--- a/docs/PTA2_DDC_30/PTA2_DDC_30_30.07.24v_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1243 +505,1475 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731437391.0386605</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731437392.2453635</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437391.0386605.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437392.2453635.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.48</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731437392.5525422</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731437393.8675604</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437392.5525422.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437393.8675604.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>291.23</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731437393.8805258</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731437394.0250182</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437393.8805258.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437394.0250182.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>291.23</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>291.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731437394.038981</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731437394.1356819</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437394.038981.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437394.1356819.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>291.05</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>291.16</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731437395.4607713</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731437396.520164</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437395.4607713.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437396.520164.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>291.01</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>290.63</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731437396.7300158</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731437396.8018968</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437396.7300158.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437396.8018968.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>290.69</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>290.56</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731437396.9273622</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731437397.2208152</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437396.9273622.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437397.2208152.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>290.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>290.66</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731437397.7768087</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731437397.7768087.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731437397.7768087.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>290.22</v>
       </c>
-      <c r="J10" t="n">
-        <v>290.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.82000000000005</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731437400.275033</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731437400.7546031</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437400.275033.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437400.7546031.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731437400.8277063</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731437401.1888716</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437400.8277063.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437401.1888716.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.63</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>132.81</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731437401.4714978</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731437402.383315</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437401.4714978.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437402.383315.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.53</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>132.58</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731437402.6744564</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731437402.9669416</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437402.6744564.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437402.9669416.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>132.58</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>132.43</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731437403.1003473</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731437403.467305</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437403.1003473.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437403.467305.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>132.31</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>132.41</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731437404.1283474</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731437404.7834342</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437404.1283474.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437404.7834342.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>132.42</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>132.39</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731437404.8857994</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731437405.0649135</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437404.8857994.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437405.0649135.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>132.29</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>132.37</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731437406.937424</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731437406.937424.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731437406.937424.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>132.28</v>
       </c>
-      <c r="J18" t="n">
-        <v>132.28</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>132.29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731437408.315471</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731437408.5980382</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437408.315471.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437408.5980382.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6796.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6801</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731437408.638173</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731437408.8369308</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437408.638173.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437408.8369308.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6803</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6797</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731437409.1839957</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731437409.2794957</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437409.1839957.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437409.2794957.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6800</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731437409.570159</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731437410.9601755</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437409.570159.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437410.9601755.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6803</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6810.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731437411.0249603</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731437412.0091639</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437411.0249603.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437412.0091639.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6803</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731437412.275878</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731437412.5941303</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437412.275878.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437412.5941303.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6803</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731437412.7380872</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731437413.0067143</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437412.7380872.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437413.0067143.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6806.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731437413.2501502</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731437413.3414721</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437413.2501502.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437413.3414721.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6804</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6805.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731437413.5080802</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731437413.5080802.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731437413.5080802.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6802.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6802.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,816 +1981,969 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731437414.2372217</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731437415.208351</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437414.2372217.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437415.208351.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>510.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>510.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731437415.248781</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731437415.6851752</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437415.248781.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437415.6851752.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>510.25</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>510.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731437416.4538782</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731437416.5534353</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437416.4538782.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437416.5534353.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>510.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>510.35</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731437417.0393512</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731437418.5435648</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437417.0393512.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437418.5435648.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>510.85</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>512.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.549999999999955</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731437419.0406723</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731437419.9092503</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437419.0406723.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437419.9092503.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>511.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>512</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731437420.1633546</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731437420.4209313</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437420.1633546.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437420.4209313.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>512.35</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>511.95</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4000000000000341</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731437420.7840135</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731437421.2450702</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437420.7840135.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437421.2450702.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>511.75</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>511.85</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731437421.45647</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731437421.5797331</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437421.45647.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437421.5797331.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>511.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>511.75</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731437422.2328913</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731437422.2328913.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731437422.2328913.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>511</v>
       </c>
-      <c r="J36" t="n">
-        <v>511</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731437423.2918208</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731437424.7575548</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437423.2918208.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437424.7575548.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1045.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1045.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731437424.8490434</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731437425.7245488</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437424.8490434.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437425.7245488.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1046</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1046.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731437426.127777</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731437426.4398522</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437426.127777.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437426.4398522.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1048.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1046.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731437426.4547853</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731437427.875062</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437426.4547853.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437427.875062.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1046.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731437428.5668833</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731437429.8593192</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437428.5668833.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437429.8593192.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1043.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.399999999999864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731437430.0505872</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731437430.0505872.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731437430.0505872.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1046</v>
       </c>
-      <c r="J42" t="n">
-        <v>1046</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731437431.3278167</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731437431.8772306</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437431.3278167.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437431.8772306.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>127.34</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731437432.1376908</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731437433.275972</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437432.1376908.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437433.275972.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>127.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>127.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2551,1012 +2951,1201 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731437433.343631</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731437434.1958537</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437433.343631.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437434.1958537.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>127.48</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>127.5</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731437434.2357469</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731437434.9084983</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437434.2357469.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437434.9084983.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>127.38</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731437436.248083</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731437436.248083.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731437436.248083.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>127.46</v>
       </c>
-      <c r="J47" t="n">
-        <v>127.46</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731437438.3950844</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731437438.9113765</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437438.3950844.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437438.9113765.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>166.12</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>166.02</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731437439.3171377</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731437439.6432986</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437439.3171377.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437439.6432986.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>166.24</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>166.08</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731437439.8633275</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731437440.727547</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437439.8633275.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437440.727547.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>166.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>166.28</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731437440.89606</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731437443.3269875</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437440.89606.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437443.3269875.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>166.34</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>165.74</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.5999999999999943</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731437443.6011271</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731437444.0971053</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437443.6011271.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437444.0971053.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>51.675</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>51.74</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.06500000000000483</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731437445.6147482</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731437445.6835196</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437445.6147482.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437445.6835196.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>51.65</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>51.595</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731437445.7509544</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731437445.8182056</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437445.7509544.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437445.8182056.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>51.58</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>51.655</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731437445.9791365</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731437447.0646996</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437445.9791365.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437447.0646996.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>51.665</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>51.635</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731437447.210276</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731437447.3272545</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437447.210276.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437447.3272545.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>51.64</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>51.645</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731437447.4271414</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731437448.765217</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437447.4271414.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437448.765217.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>51.555</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>51.5</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731437448.8882697</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731437449.2070897</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437448.8882697.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437449.2070897.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>51.5</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>51.45</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731437449.603971</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731437450.0015433</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437449.603971.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437450.0015433.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>51.45</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>51.445</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731437450.5204914</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731437451.638341</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437450.5204914.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437451.638341.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1419.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731437452.0424721</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731437452.2651508</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437452.0424721.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437452.2651508.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1421.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731437452.339449</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731437453.9285376</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437452.339449.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437453.9285376.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1421.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731437454.1974604</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731437454.7057142</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437454.1974604.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437454.7057142.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1421.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1421.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731437454.9798124</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731437458.7175772</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437454.9798124.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437458.7175772.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1420</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731437458.7325401</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731437458.7325401.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731437458.7325401.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1420</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1420</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3564,473 +4153,563 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731437458.9204917</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731437459.1112888</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437458.9204917.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437459.1112888.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.7</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>60.63</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731437459.6384895</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731437459.8276372</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437459.6384895.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437459.8276372.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>60.44</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>60.53</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731437460.961603</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731437461.159118</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437460.961603.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437461.159118.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.58</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>60.52</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731437461.5467684</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731437462.3156152</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437461.5467684.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437462.3156152.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.66</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>60.59</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731437463.3871586</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731437464.357316</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437463.3871586.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437464.357316.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>60.51</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>60.53</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731437464.6657145</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731437465.0114496</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437464.6657145.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437465.0114496.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.55</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>60.49</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731437465.160877</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731437465.2516928</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437465.160877.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437465.2516928.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>60.49</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.55</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731437465.3238273</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731437466.8484824</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437465.3238273.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437466.8484824.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>60.44</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>60.43</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731437466.9242747</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731437466.9242747.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731437466.9242747.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.37</v>
       </c>
-      <c r="J74" t="n">
-        <v>60.37</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
+      <c r="L74" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731437467.336389</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731437467.336389.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731437467.336389.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>56.9</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>56.9</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4038,195 +4717,231 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731437467.438537</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731437467.5839784</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437467.438537.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437467.5839784.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>141.2</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>141.16</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731437467.8087862</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731437467.8871121</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437467.8087862.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437467.8871121.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>141.24</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>141.14</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731437467.9020727</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731437468.050299</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437467.9020727.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.050299.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>141.14</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>141.22</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731437468.0652597</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731437468.3255196</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.0652597.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.3255196.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>141.22</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>141.22</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4234,48 +4949,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731437468.341477</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731437468.4047756</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.341477.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.4047756.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>141.22</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>141.22</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,1919 +5007,2279 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731437468.4694536</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731437468.564955</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.4694536.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.564955.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>141.22</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>141.14</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731437468.5799222</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731437468.8147354</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.5799222.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.8147354.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>141.14</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>141.22</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731437468.8297226</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731437471.4331987</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437468.8297226.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437471.4331987.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>141.22</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>141.36</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1400000000000148</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731437472.1386607</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731437472.1386607.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731437472.1386607.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>140.98</v>
       </c>
-      <c r="J84" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
+      <c r="L84" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731437474.9794135</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731437475.5546737</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437474.9794135.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437475.5546737.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>54.07</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>53.94</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731437476.314543</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731437476.4928787</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437476.314543.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437476.4928787.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>54.05</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>53.98</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731437476.8106494</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731437477.4938326</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437476.8106494.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437477.4938326.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>54.03</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>54.05</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731437478.4994283</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731437479.091411</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437478.4994283.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437479.091411.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>53.93</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>53.97</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731437480.3657408</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731437480.9961994</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437480.3657408.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437480.9961994.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>53.9</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>53.83</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731437481.5129905</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731437481.69292</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437481.5129905.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437481.69292.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>53.66</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>53.78</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731437482.5078979</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731437482.5078979.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731437482.5078979.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>53.57</v>
       </c>
-      <c r="J91" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731437483.3441617</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731437483.6264415</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437483.3441617.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437483.6264415.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>375.33</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>375.15</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731437483.9392812</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731437484.2901456</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437483.9392812.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437484.2901456.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>375.69</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>375.16</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.5299999999999727</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731437486.8345509</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731437487.318309</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437486.8345509.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437487.318309.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>374.55</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>374.84</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2899999999999636</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731437488.5037184</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731437490.7174938</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437488.5037184.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437490.7174938.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>374</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>371.99</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-2.009999999999991</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731437491.9780688</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731437492.108351</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437491.9780688.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437492.108351.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.09718</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731437493.234789</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731437493.2767026</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437493.234789.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437493.2767026.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>3024.6</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>3022.7</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>1.900000000000091</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731437493.9155436</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731437494.7218795</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437493.9155436.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437494.7218795.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>3022.4</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>3022.65</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731437494.9225066</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731437495.0928798</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437494.9225066.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437495.0928798.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>3023.95</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>3022.2</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731437495.4392855</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731437496.237761</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437495.4392855.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437496.237761.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>3024.9</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>3024.15</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731437496.7605731</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731437496.8526096</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437496.7605731.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437496.8526096.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>3027</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>3019.8</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>7.199999999999818</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731437496.8685393</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731437498.1763995</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437496.8685393.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437498.1763995.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>3019.8</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>3021.85</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>2.049999999999727</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731437498.3232834</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731437498.4437702</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437498.3232834.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731437498.4437702.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>3022.1</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>3019.45</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>2.650000000000091</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731437499.092941</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731437499.092941.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731437499.092941.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>3018.55</v>
       </c>
-      <c r="J104" t="n">
-        <v>3018.55</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
+      <c r="L104" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731437500.3580544</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731437501.5088515</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437500.3580544.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437501.5088515.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>34.56</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>34.51</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731437501.9616058</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731437504.1530306</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437501.9616058.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437504.1530306.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>34.51</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>34.525</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731437504.2222896</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731437506.5581958</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437504.2222896.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437506.5581958.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>34.53</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>34.42</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731437506.7853398</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731437506.7853398.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731437506.7853398.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>34.48</v>
       </c>
-      <c r="J108" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
+      <c r="L108" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.05000000000000426</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731437507.644115</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731437508.859504</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437507.644115.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437508.859504.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>640.4</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>640.2</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731437509.3055336</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731437509.5954597</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437509.3055336.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437509.5954597.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>640.7</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>640</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731437509.6353834</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731437510.5134914</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437509.6353834.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437510.5134914.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>640</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>640.7</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731437510.5294209</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731437510.6734874</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437510.5294209.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437510.6734874.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>640.7</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>640.3</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731437510.7389963</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731437511.055818</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437510.7389963.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437511.055818.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>640.1</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>640.5</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731437511.5367284</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731437512.2212958</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437511.5367284.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.2212958.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>640</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>640.3</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731437512.2372506</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731437512.304277</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.2372506.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.304277.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>640.3</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>640.2</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.09999999999990905</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731437512.4705026</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731437512.5102031</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.4705026.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.5102031.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>640.2</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>640.3</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.09999999999990905</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731437512.6754665</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731437512.8957307</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.6754665.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.8957307.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>640.5</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>640.1</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731437512.9401925</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731437513.5191615</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437512.9401925.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437513.5191615.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>640.6</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>640.4</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731437513.5351074</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731437513.7043598</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437513.5351074.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/TATN1731437513.7043598.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>640.4</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>640.5</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731437514.6620183</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731437514.6620183.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731437514.6620183.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>640.6</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>640.6</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6210,7 +7294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6239,6 +7323,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6255,6 +7349,12 @@
       <c r="D2" t="n">
         <v>0.2999999999999924</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6263,13 +7363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4199999999999875</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04666666666666527</v>
+        <v>0.04999999999999874</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -6279,13 +7385,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2400000000000375</v>
+        <v>0.04000000000004889</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02666666666667084</v>
+        <v>0.004444444444449876</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6295,13 +7407,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.000000000000114</v>
+        <v>1.100000000000136</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1111111111111237</v>
+        <v>0.1222222222222374</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -6319,6 +7437,12 @@
       <c r="D6" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6327,13 +7451,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.54999999999973</v>
+        <v>16.14999999999964</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.068749999999966</v>
+        <v>2.018749999999955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6343,13 +7473,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5100000000000477</v>
+        <v>-0.3100000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06375000000000597</v>
+        <v>-0.03875000000000028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -6359,13 +7495,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6400000000000432</v>
+        <v>0.6500000000000341</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0800000000000054</v>
+        <v>0.08125000000000426</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
@@ -6383,6 +7525,12 @@
       <c r="D10" t="n">
         <v>0.01124999999999954</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6391,13 +7539,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4100000000000108</v>
+        <v>0.3500000000000085</v>
       </c>
       <c r="C11" t="n">
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05857142857143011</v>
+        <v>0.05000000000000122</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -6407,13 +7561,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1999999999998181</v>
+        <v>-1.399999999999864</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03333333333330302</v>
+        <v>-0.2333333333333106</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
@@ -6431,6 +7591,12 @@
       <c r="D13" t="n">
         <v>-0.1333333333333258</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6439,13 +7605,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2400000000000233</v>
+        <v>0.160000000000025</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04800000000000466</v>
+        <v>0.032000000000005</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
@@ -6463,6 +7635,12 @@
       <c r="D15" t="n">
         <v>-0.07999999999999829</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6471,13 +7649,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1750000000000043</v>
+        <v>-0.2250000000000085</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04375000000000107</v>
+        <v>-0.05625000000000213</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="17">
@@ -6495,6 +7679,12 @@
       <c r="D17" t="n">
         <v>-0.2525000000000119</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.2700000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6511,6 +7701,12 @@
       <c r="D18" t="n">
         <v>0.0002400000000000041</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6527,6 +7723,12 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6541,6 +7743,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
